--- a/medicine/Pharmacie/Anadenanthera/Anadenanthera.xlsx
+++ b/medicine/Pharmacie/Anadenanthera/Anadenanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anadenanthera est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Mimosoideae, originaire d'Amérique du Sud et des Antilles, qui comprend deux espèces acceptées[3]. Il était autrefois classé dans la famille des Mimosaceae.
-Ce sont des arbres qui se rencontrent dans des habitats très variés, dans les forêts riveraines tropicales à subtropicales saisonnièrement sèches et dans les lisières de forêts, les formations arbustives (cerrado) et les savanes arborescentes. Ces arbres sont  souvent plantés près des villages[4].
+Anadenanthera est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Mimosoideae, originaire d'Amérique du Sud et des Antilles, qui comprend deux espèces acceptées. Il était autrefois classé dans la famille des Mimosaceae.
+Ce sont des arbres qui se rencontrent dans des habitats très variés, dans les forêts riveraines tropicales à subtropicales saisonnièrement sèches et dans les lisières de forêts, les formations arbustives (cerrado) et les savanes arborescentes. Ces arbres sont  souvent plantés près des villages.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (22 décembre 2018)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (22 décembre 2018) :
 Anadenanthera colubrina (Vell.) Brenan
 Anadenanthera peregrina (L.) Speg.</t>
         </is>
@@ -547,10 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage traditionnel
-Ces espèces sont réputées pour être utilisées par les Amérindiens sous forme de poudre à priser et servir d'enthéogène sous le nom notamment de yopo pour Anadenanthera peregrina ou cebil, vilca ou huillca pour Anadenanthera colubrina et Anadenanthera colubrina var. cebil[6].
-Pharmacologie
-Les principes actifs identifiés dans ces plantes sont :
+          <t>Usage traditionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces sont réputées pour être utilisées par les Amérindiens sous forme de poudre à priser et servir d'enthéogène sous le nom notamment de yopo pour Anadenanthera peregrina ou cebil, vilca ou huillca pour Anadenanthera colubrina et Anadenanthera colubrina var. cebil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anadenanthera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anadenanthera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principes actifs identifiés dans ces plantes sont :
 5-hydroxy-N, N-diméthytryptamine (5-OH-DMT) ;
 N, N diméthyltryptamine (DMT) ;
 N-monométhyltryptamine ;
